--- a/biology/Botanique/Crépide_capillaire/Crépide_capillaire.xlsx
+++ b/biology/Botanique/Crépide_capillaire/Crépide_capillaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cr%C3%A9pide_capillaire</t>
+          <t>Crépide_capillaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crépis à tiges capillaires
 La Crépide capillaire, ou Crépis à tiges capillaires (Crepis capillaris), est une espèce de plante à fleurs de la famille des Asteraceae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cr%C3%A9pide_capillaire</t>
+          <t>Crépide_capillaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Crepis bauhiniana Tausch
 Crepis diffusa DC.
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cr%C3%A9pide_capillaire</t>
+          <t>Crépide_capillaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,10 +564,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante herbacée bisannuelle aux tiges ramifiées possède des feuilles luisantes, les supérieures plus étroites, embrassant la tige par des pointes sagittées. Hauteur de 5 à 50 cm (jusqu'à 80 cm).
-L'inflorescence est une panicule lâche de capitules, chaque capitule mesurant de 10 à 15 mm de diamètre. Les ligules des fleurons ligulés les plus externes sont rougeâtres en dessous. Les bractées extérieures sont à demi-étalées, étroites et velues[1].
+L'inflorescence est une panicule lâche de capitules, chaque capitule mesurant de 10 à 15 mm de diamètre. Les ligules des fleurons ligulés les plus externes sont rougeâtres en dessous. Les bractées extérieures sont à demi-étalées, étroites et velues.
 </t>
         </is>
       </c>
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cr%C3%A9pide_capillaire</t>
+          <t>Crépide_capillaire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Thérophyte ou hémicryptophyte. Bisannuel. Floraison de juin à octobre. Plante mellifère.
 </t>
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cr%C3%A9pide_capillaire</t>
+          <t>Crépide_capillaire</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,7 +631,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Europe (sauf du Nord), Macaronésie. Commune dans toute la France.
 </t>
@@ -626,7 +646,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cr%C3%A9pide_capillaire</t>
+          <t>Crépide_capillaire</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -644,7 +664,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Pelouses tondues, prairies, friches, bords de chemins, cultures négligées, dunes.
 </t>
